--- a/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/resultados/todos_resultados.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/resultados/todos_resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>r2_sup</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Erro de Diversidade</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bias</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>covar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MSE_var_bias</t>
         </is>
@@ -473,250 +483,310 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_9_9_3.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_9_9_3.xlsx']</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0.6909595463926324</v>
       </c>
       <c r="C2" t="n">
+        <v>0.8353598363989281</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.8236709697747489</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>0.9980360716866594</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.03706245498745331</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.008242187002568256</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>4.079583160822856</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.03713038863403861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_20_81_2.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_20_81_2.xlsx']</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.6822629019745429</v>
       </c>
       <c r="C3" t="n">
+        <v>0.8374320517221694</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.6438345989007845</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>0.9988421734986083</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.02976215487445839</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.004859150141161682</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>4.13133320330192</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02978576621455274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_34_6_1.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_1.xlsx']</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.7042720189148135</v>
       </c>
       <c r="C4" t="n">
+        <v>0.8321877727586912</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.7843516535689389</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>0.998246463552348</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.03553797400352975</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.00735921734983442</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>4.091941337814591</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.03559213208353185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_9_9_2.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_9_9_2.xlsx']</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.6646156932127677</v>
       </c>
       <c r="C5" t="n">
+        <v>0.8416369857922024</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.8267683753139893</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>0.9980256598709253</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.03719547718275837</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.008285883165882189</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>4.078827613028812</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.03726413304259702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_30_7_5.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_5.xlsx']</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.6681563853786285</v>
       </c>
       <c r="C6" t="n">
+        <v>0.8407933182569729</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.7108090904325718</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>0.998497500730985</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0323876205148264</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.006305668013604373</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>4.134369568325893</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0324273819639242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_9_9_8.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_9_9_8.xlsx']</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0.6839627190778406</v>
       </c>
       <c r="C7" t="n">
+        <v>0.8370270234286319</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.8107416673291471</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>0.9980838385083991</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.03651622343139412</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.008041719870126472</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>4.083257597105178</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.0365808926898637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_9_9_4.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_9_9_4.xlsx']</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.6636836846456468</v>
       </c>
       <c r="C8" t="n">
+        <v>0.8418590625313827</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.8207507820785205</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>0.9980461898010641</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.03693767738347369</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.008199723440904689</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>4.080331880447494</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.03700491284798101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_18_81_1.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_81_1.xlsx']</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0.7007109478740354</v>
       </c>
       <c r="C9" t="n">
+        <v>0.8330362961227719</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.6497640958524622</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>0.9988689499678773</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.03011481727875852</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.004746775027729157</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>4.128158193251061</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0301373491519224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_30_7_6.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_6.xlsx']</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.7042720189148135</v>
       </c>
       <c r="C10" t="n">
+        <v>0.8321877727586912</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.7051391193003894</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>0.9985175002126989</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.03214608873142408</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.006221734467190797</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>4.134428676087333</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0321847987112043</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25_model_2_8_0.xlsx, 25_model_18_8_3.xlsx, 25_model_22_9_22.xlsx, 25_model_34_6_3.xlsx, 25_model_22_9_19.xlsx, 25_model_24_91_7.xlsx, 25_model_10_9_0.xlsx, 25_model_2_9_2.xlsx, 25_model_30_7_8.xlsx, 25_model_20_81_0.xlsx</t>
+          <t>['/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_8_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_18_8_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_22.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_34_6_3.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_22_9_19.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_24_91_7.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_10_9_0.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_2_9_2.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_30_7_8.xlsx', '/workspaces/IC-RNA-2025/Peaks-dataset-article/redes-ensemble-s/mse_sup_newdt copy/25_model/25_model_20_81_0.xlsx']</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.6671013162274769</v>
       </c>
       <c r="C11" t="n">
+        <v>0.8410447175734204</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.6486011437816782</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>0.9988658109336725</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.03005008274769553</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.004759948882776762</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>4.127088154816407</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.03007273986106218</v>
       </c>
     </row>
